--- a/pruebaEscritorio.xlsx
+++ b/pruebaEscritorio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Trabajos UTPL\Fundamentos computacionales\Bimestre2\Semana6\taller13-refuerzo-NixonVuele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69543842-3E85-40E0-8297-475FAE9C60AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C8975-BF07-481A-B0DB-4A18E90B55B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DE57197-67FF-43AC-A3DA-78122FC894CD}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>0 * 10 elevado a la potencia 0</t>
   </si>
   <si>
-    <t>2 * 10 elevado a la potencia 0</t>
-  </si>
-  <si>
     <t>9 * 10 elevado a la potencia 2</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>k1  = 1/10 = 0</t>
+  </si>
+  <si>
+    <t>2 * 10 elevado a la potencia 1</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -629,11 +629,11 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -674,11 +674,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -719,11 +719,11 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -753,11 +753,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
